--- a/sonuc.xlsx
+++ b/sonuc.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="U123" sqref="U123"/>
@@ -624,7 +624,2147 @@
         <v>0.443159475328593</v>
       </c>
       <c r="R2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4412584871409108</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6333300467824033</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8138646669180385</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8290235351292182</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8193108213549363</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8084727949668012</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8119140432109799</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8578844864920558</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7870209290478497</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7827528055652166</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.3495374619659517</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.443159475328593</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_56.jpg</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5934680840892329</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6467941291341074</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7925571158533486</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8226208209097173</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7679770660991592</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7597451836434609</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8120177378987469</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.858015613961412</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7802813181359333</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7906969954876066</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2590473186869067</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2821370214752567</v>
+      </c>
+      <c r="R4" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_56.jpg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5934680840892329</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6467941291341074</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7925571158533486</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8226208209097173</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7679770660991592</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7597451836434609</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8120177378987469</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.858015613961412</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7802813181359333</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7906969954876066</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2590473186869067</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2821370214752567</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_58.jpg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4405377051545069</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6328236074184145</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7114045294075326</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.700566057048332</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.802653565245438</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7925733203015232</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7094432671349643</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.735715525381519</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.667148710649498</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.6757071332690727</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.1858277591973244</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1710069444444444</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_58.jpg</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4405377051545069</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6328236074184145</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7114045294075326</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.700566057048332</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.802653565245438</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7925733203015232</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7094432671349643</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.735715525381519</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.667148710649498</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.6757071332690727</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1858277591973244</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1710069444444444</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>not_skin_cancer_58.jpg</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4405377051545069</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6328236074184145</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7114045294075326</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.700566057048332</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.802653565245438</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7925733203015232</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7094432671349643</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.735715525381519</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.667148710649498</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.6757071332690727</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.1858277591973244</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.1710069444444444</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4069201587657619</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6076094282609955</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8043961244045787</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8275655397994992</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8192926705103091</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8150938767872214</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.80975776513371</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8578764505854815</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.7487211658621838</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7649307125756132</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4150147700937927</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6132163667354381</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8035532133055235</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8276158077594414</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8192768539966441</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8173061499847956</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8117402897749705</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8578148493283804</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.7531105404889342</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7695243442778575</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4150147700937927</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6132163667354381</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8035532133055235</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8276158077594414</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8192768539966441</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8173061499847956</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8117402897749705</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8578148493283804</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7531105404889342</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.7695243442778575</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4146971714802521</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6129940134878292</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8035929529840039</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8276129160721192</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8192990195588028</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8174928904135573</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8111162847683268</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8577799891350454</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.7465096637535605</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.7631581151505916</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4150147700937927</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6132163667354381</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8035532133055235</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8276158077594414</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8192768539966441</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8173061499847956</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8117402897749705</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8578148493283804</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.7531105404889342</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.7695243442778575</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4150147700937927</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6132163667354381</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8035532133055235</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8276158077594414</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8192768539966441</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8173061499847956</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.8117402897749705</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8578148493283804</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.7531105404889342</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.7695243442778575</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4150147700937927</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6132163667354381</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8035532133055235</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8276158077594414</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8192768539966441</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8173061499847956</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8117402897749705</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.8578148493283804</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7531105404889342</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.7695243442778575</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4150147700937927</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6132163667354381</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8035532133055235</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8276158077594414</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8192768539966441</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8173061499847956</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8117402897749705</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8578148493283804</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.7531105404889342</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.7695243442778575</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4412584871409108</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6333300467824033</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8138646669180385</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8290235351292182</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8193108213549363</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8084727949668012</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.8119140432109799</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8578844864920558</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.7870209290478497</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.7827528055652166</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.3495374619659517</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.443159475328593</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4412584871409108</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6333300467824033</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8138646669180385</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8290235351292182</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8193108213549363</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8084727949668012</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.8119140432109799</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8578844864920558</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.7870209290478497</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.7827528055652166</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.3495374619659517</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.443159475328593</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4513345018754102</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6393869351440806</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8140689148258803</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8287590449451571</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8104189375185381</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.7975653665839221</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.8092958440808695</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8508133728919439</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.7665339424934949</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.7626860236932865</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.5620605129043346</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4937506733462615</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4513345018754102</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6393869351440806</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8140689148258803</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8287590449451571</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8104189375185381</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.7975653665839221</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.8092958440808695</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8508133728919439</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.7665339424934949</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.7626860236932865</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.5620605129043346</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4937506733462615</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4513345018754102</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6393869351440806</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8140689148258803</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8287590449451571</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8104189375185381</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7975653665839221</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8092958440808695</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.8508133728919439</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.7665339424934949</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.7626860236932865</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5620605129043346</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.4937506733462615</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4513345018754102</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6393869351440806</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8140689148258803</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8287590449451571</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8104189375185381</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7975653665839221</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8092958440808695</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8508133728919439</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.7665339424934949</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.7626860236932865</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.5620605129043346</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4937506733462615</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4513345018754102</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6393869351440806</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8140689148258803</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8287590449451571</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8104189375185381</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.7975653665839221</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8092958440808695</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8508133728919439</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.7665339424934949</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.7626860236932865</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.5620605129043346</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.4937506733462615</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4513345018754102</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6393869351440806</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8140689148258803</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8287590449451571</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8104189375185381</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.7975653665839221</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.8092958440808695</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8508133728919439</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7665339424934949</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.7626860236932865</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.5620605129043346</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.4937506733462615</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4513345018754102</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6393869351440806</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8140689148258803</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8287590449451571</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8104189375185381</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7975653665839221</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.8092958440808695</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8508133728919439</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.7665339424934949</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.7626860236932865</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.5620605129043346</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.4937506733462615</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>skin_cancer_60.jpg</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.5620605129043346</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4937506733462615</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WIN_20241016_16_12_17_Pro.jpg</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.1325034273403838</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.1109234234234234</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>WIN_20241016_16_12_17_Pro.jpg</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.2649620672360947</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.298410005027652</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>WIN_20241016_16_12_17_Pro.jpg</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.2978998150336823</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.351197209653092</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WIN_20241016_16_12_17_Pro.jpg</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.1325034273403838</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1109234234234234</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.4579206691477859</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.5263909089276737</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.5045558084173644</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.518751346692523</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>skin_cancer_120.jpg</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5045558084173644</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.518751346692523</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
